--- a/Experiment2/SolarBattery/in.xlsx
+++ b/Experiment2/SolarBattery/in.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5F854-E678-40C0-B8DD-2AB1649330A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C87EF-9524-44B5-80BD-FE8A06101B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8952" yWindow="1476" windowWidth="17280" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,17 +538,17 @@
   <dimension ref="C2:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:W32"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="23" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="23" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -562,7 +562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -570,13 +570,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -638,67 +640,147 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D7" s="2">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>16</v>
+      </c>
+      <c r="N7" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="O7" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="P7" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="S7" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="T7" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D8" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W8" s="2">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -706,13 +788,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D13" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>1</v>
       </c>
@@ -774,67 +858,147 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D15" s="2">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="H15" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="M15" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N15" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="O15" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="P15" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="R15" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="S15" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="T15" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U15" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D16" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="W16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -842,13 +1006,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D21" s="2">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1</v>
       </c>
@@ -910,67 +1076,147 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D23" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="J23" s="2">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="M23" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="O23" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="P23" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="S23" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="T23" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U23" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="V23" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W23" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>7</v>
       </c>
@@ -978,13 +1224,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D29" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>1</v>
       </c>
@@ -1046,67 +1294,147 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2">
+        <v>15</v>
+      </c>
+      <c r="J31" s="2">
+        <v>15</v>
+      </c>
+      <c r="K31" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="L31" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="M31" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="N31" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="P31" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>11</v>
+      </c>
+      <c r="R31" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="S31" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="T31" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="U31" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V31" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="W31" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D32" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>9</v>
       </c>
@@ -1120,22 +1448,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>9</v>
       </c>
@@ -1149,22 +1477,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,7 +1523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
